--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1191356967917761</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.31522642483545</v>
+        <v>-1.319854777283631</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1698478984793941</v>
+        <v>-0.162300909897487</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1315026554678589</v>
+        <v>-0.1256610030561332</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1329775330225539</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.38695128730134</v>
+        <v>-1.386551234124431</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2380000232668303</v>
+        <v>-0.2289959066901964</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1344388121786763</v>
+        <v>-0.1311697645031317</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.151454178810423</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.49164695575613</v>
+        <v>-1.488725399526222</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2836075454825454</v>
+        <v>-0.2776622296563651</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1392832517443114</v>
+        <v>-0.1356521121422214</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1677745218653054</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.646771225222816</v>
+        <v>-1.638297106103182</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2926817443675429</v>
+        <v>-0.2895309605873619</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1490524335205815</v>
+        <v>-0.1468273202300366</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1771239922672684</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.741529806370881</v>
+        <v>-1.732223459839429</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2919006186389068</v>
+        <v>-0.2880344112941805</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.165148003674759</v>
+        <v>-0.1675089014377583</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1772029399059592</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.58207503426656</v>
+        <v>-1.573637416349199</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2249939148730156</v>
+        <v>-0.2213627752709257</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1705326610340303</v>
+        <v>-0.1769831534996649</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1717540016521409</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.421279938014785</v>
+        <v>-1.417264805764786</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1497985180950358</v>
+        <v>-0.1440327881840374</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1516221181605808</v>
+        <v>-0.1540691587609438</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.166182461675843</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151721479326949</v>
+        <v>-1.147837751405131</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008928698139891824</v>
+        <v>-0.001548155040348352</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1278058137016781</v>
+        <v>-0.1324838077849496</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1640486326508455</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7792705115765941</v>
+        <v>-0.780183041633412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07710317556881234</v>
+        <v>0.08208923979926555</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1150260127619542</v>
+        <v>-0.1203186870914983</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1658868869965252</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4015210293043319</v>
+        <v>-0.4111573467043293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1174968660518924</v>
+        <v>0.1299788171810709</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07202905653278398</v>
+        <v>-0.07521780156332857</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1714562302009166</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0692232960221781</v>
+        <v>0.05438482727427299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1311088944034342</v>
+        <v>0.1411116838742497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02826456692791637</v>
+        <v>0.02628182162046236</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1774176808028142</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6102280555793964</v>
+        <v>0.5928432629609466</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04973895424900152</v>
+        <v>0.06082947954754399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1813987908466934</v>
+        <v>0.1751819060756042</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.176832930677354</v>
       </c>
       <c r="E14" t="n">
-        <v>1.174911875074972</v>
+        <v>1.153630214101887</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09595632464659573</v>
+        <v>-0.08878748852023402</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3104436813135679</v>
+        <v>0.3041289733203877</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1635031623595075</v>
       </c>
       <c r="E15" t="n">
-        <v>1.821886925070344</v>
+        <v>1.80202151074544</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2621258579210057</v>
+        <v>-0.2615228580594604</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4918210755028828</v>
+        <v>0.4867065270404297</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.134742848495707</v>
       </c>
       <c r="E16" t="n">
-        <v>2.452204286396538</v>
+        <v>2.425573009218363</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4989281376893057</v>
+        <v>-0.5002378008268508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6104660434182145</v>
+        <v>0.6033541491673983</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.0943240155375749</v>
       </c>
       <c r="E17" t="n">
-        <v>3.064186363797101</v>
+        <v>3.036445450069836</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6349812589925419</v>
+        <v>-0.6339767459059967</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7966834970288919</v>
+        <v>0.7905542151432572</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.04831190545813413</v>
       </c>
       <c r="E18" t="n">
-        <v>3.667714762751303</v>
+        <v>3.631898323033222</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7583173614239633</v>
+        <v>-0.7580618530080543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9373343097703996</v>
+        <v>0.9345470779648548</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.352290463552059e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>4.201623688586705</v>
+        <v>4.166651156665169</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9161208191374665</v>
+        <v>-0.9165851144303754</v>
       </c>
       <c r="G19" t="n">
-        <v>1.090296248014449</v>
+        <v>1.085951144895905</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.04878794120685278</v>
       </c>
       <c r="E20" t="n">
-        <v>4.745533943844832</v>
+        <v>4.711447661114477</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.131834164280681</v>
+        <v>-1.128629358721137</v>
       </c>
       <c r="G20" t="n">
-        <v>1.249234163094588</v>
+        <v>1.246464451866135</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.09689097290564865</v>
       </c>
       <c r="E21" t="n">
-        <v>5.207179249468799</v>
+        <v>5.170006425074263</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.289263849682912</v>
+        <v>-1.285261857865731</v>
       </c>
       <c r="G21" t="n">
-        <v>1.425761277525905</v>
+        <v>1.421722784506451</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.1425130382190291</v>
       </c>
       <c r="E22" t="n">
-        <v>5.610685440112781</v>
+        <v>5.575886653914063</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.495799332526674</v>
+        <v>-1.491019135077039</v>
       </c>
       <c r="G22" t="n">
-        <v>1.540506456990419</v>
+        <v>1.539120871352147</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.1823603995200004</v>
       </c>
       <c r="E23" t="n">
-        <v>5.884356854272707</v>
+        <v>5.8457663231819</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.677074523349626</v>
+        <v>-1.666419092382174</v>
       </c>
       <c r="G23" t="n">
-        <v>1.702469591714921</v>
+        <v>1.699232665097377</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.213644596016542</v>
       </c>
       <c r="E24" t="n">
-        <v>6.188087738528262</v>
+        <v>6.152348681358999</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.848460808452852</v>
+        <v>-1.836804514519083</v>
       </c>
       <c r="G24" t="n">
-        <v>1.8146830477898</v>
+        <v>1.815937229099891</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.2351057509622066</v>
       </c>
       <c r="E25" t="n">
-        <v>6.39884130030666</v>
+        <v>6.366200465186306</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.983786825806816</v>
+        <v>-1.970931102366365</v>
       </c>
       <c r="G25" t="n">
-        <v>1.915791378085228</v>
+        <v>1.918736295084591</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.246720986364094</v>
       </c>
       <c r="E26" t="n">
-        <v>6.497528870867361</v>
+        <v>6.467559923753369</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.08859272789247</v>
+        <v>-2.0787753645292</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98011379673021</v>
+        <v>1.981150430874756</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2494633271700706</v>
       </c>
       <c r="E27" t="n">
-        <v>6.551317042536438</v>
+        <v>6.521120327920264</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.176265695655355</v>
+        <v>-2.167257198934449</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06168814361737</v>
+        <v>2.064085542582642</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.2453865212316421</v>
       </c>
       <c r="E28" t="n">
-        <v>6.661340426474953</v>
+        <v>6.631524784410507</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234504823929567</v>
+        <v>-2.229976484775614</v>
       </c>
       <c r="G28" t="n">
-        <v>2.09240901549818</v>
+        <v>2.093655896567816</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2362509447905037</v>
       </c>
       <c r="E29" t="n">
-        <v>6.598209407072153</v>
+        <v>6.568932522753251</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294615733856324</v>
+        <v>-2.290719595525734</v>
       </c>
       <c r="G29" t="n">
-        <v>2.136873320058714</v>
+        <v>2.140694265912622</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.2234117774685508</v>
       </c>
       <c r="E30" t="n">
-        <v>6.566722009943615</v>
+        <v>6.53175093807017</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328756038366042</v>
+        <v>-2.327774886048951</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121100420532627</v>
+        <v>2.126721605682626</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.2079795158916931</v>
       </c>
       <c r="E31" t="n">
-        <v>6.477238582548003</v>
+        <v>6.443120178759648</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.309869586286092</v>
+        <v>-2.311104786971001</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102341722660632</v>
+        <v>2.112089003715539</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.190074255773205</v>
       </c>
       <c r="E32" t="n">
-        <v>6.30071584826096</v>
+        <v>6.270884145667512</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.31615728338959</v>
+        <v>-2.317592510662954</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041083944958467</v>
+        <v>2.04735485150892</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.1693831831787729</v>
       </c>
       <c r="E33" t="n">
-        <v>6.119367655033463</v>
+        <v>6.083177443004109</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336590656421858</v>
+        <v>-2.342951355929901</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976678303572302</v>
+        <v>1.980759137986392</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.1456816704519235</v>
       </c>
       <c r="E34" t="n">
-        <v>5.878525422197618</v>
+        <v>5.847770969210718</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.383206341844345</v>
+        <v>-2.3822901616673</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892140059060598</v>
+        <v>1.899395038024323</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.118841969052563</v>
       </c>
       <c r="E35" t="n">
-        <v>5.653905783699861</v>
+        <v>5.622741057199415</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.37039295979853</v>
+        <v>-2.370861635235712</v>
       </c>
       <c r="G35" t="n">
-        <v>1.823773307203798</v>
+        <v>1.83099032491716</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.08882047338783855</v>
       </c>
       <c r="E36" t="n">
-        <v>5.46355493394382</v>
+        <v>5.432823841726374</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.332858773501495</v>
+        <v>-2.329815303255996</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735291472798549</v>
+        <v>1.744520436781183</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.05567827127480023</v>
       </c>
       <c r="E37" t="n">
-        <v>5.100146044020463</v>
+        <v>5.073453444822471</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271735320223693</v>
+        <v>-2.270708176391739</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649427504620299</v>
+        <v>1.65519761467557</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.01978507752345475</v>
       </c>
       <c r="E38" t="n">
-        <v>4.828251508387173</v>
+        <v>4.796139210675727</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.168443488008312</v>
+        <v>-2.164429815806404</v>
       </c>
       <c r="G38" t="n">
-        <v>1.552118219457416</v>
+        <v>1.552420449412234</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.01847298550992666</v>
       </c>
       <c r="E39" t="n">
-        <v>4.534682558844342</v>
+        <v>4.501462084631897</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.151135347914635</v>
+        <v>-2.145721489593545</v>
       </c>
       <c r="G39" t="n">
-        <v>1.440607046514264</v>
+        <v>1.439036034768447</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.05858574178485754</v>
       </c>
       <c r="E40" t="n">
-        <v>4.264953274529869</v>
+        <v>4.233401635285333</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.122243186267688</v>
+        <v>-2.117791499638507</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382562834660189</v>
+        <v>1.385821661999097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.09994248462383058</v>
       </c>
       <c r="E41" t="n">
-        <v>3.968315303899949</v>
+        <v>3.941751188933956</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.032458258941303</v>
+        <v>-2.028173017794486</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262421317451676</v>
+        <v>1.265301992335039</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.1415077846722358</v>
       </c>
       <c r="E42" t="n">
-        <v>3.711910418463109</v>
+        <v>3.689295733583024</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.937441249281147</v>
+        <v>-1.93351079982042</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157643886303795</v>
+        <v>1.159873379738612</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1816959754538582</v>
       </c>
       <c r="E43" t="n">
-        <v>3.442233695879909</v>
+        <v>3.416691614577552</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.870356419648165</v>
+        <v>-1.865212670223893</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064911851905911</v>
+        <v>1.066220054995365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.2187020897247881</v>
       </c>
       <c r="E44" t="n">
-        <v>3.174250629082163</v>
+        <v>3.14934220865126</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.829482373343176</v>
+        <v>-1.826065130786404</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9318941705836737</v>
+        <v>0.9325030106375827</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2513086129361189</v>
       </c>
       <c r="E45" t="n">
-        <v>2.915938920838596</v>
+        <v>2.890469841940784</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.745327391455335</v>
+        <v>-1.744747752363244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8102342033606155</v>
+        <v>0.8137514592116145</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.279401532790966</v>
       </c>
       <c r="E46" t="n">
-        <v>2.665977227626935</v>
+        <v>2.644256092178487</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69579964011553</v>
+        <v>-1.696776412288348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7697937913386264</v>
+        <v>0.7712786602470805</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3033994489047904</v>
       </c>
       <c r="E47" t="n">
-        <v>2.366003047109289</v>
+        <v>2.344308192526476</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.649082481350724</v>
+        <v>-1.65061845194236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6622145279042916</v>
+        <v>0.6657770452461088</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3239769170588113</v>
       </c>
       <c r="E48" t="n">
-        <v>2.173491326178704</v>
+        <v>2.154664006046436</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.61504438020737</v>
+        <v>-1.615580217856733</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5999274162980356</v>
+        <v>0.6029205148843985</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3420628616703735</v>
       </c>
       <c r="E49" t="n">
-        <v>1.976580480350211</v>
+        <v>1.95739398838758</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.565636352811019</v>
+        <v>-1.568054192449564</v>
       </c>
       <c r="G49" t="n">
-        <v>0.538576195518052</v>
+        <v>0.5421533133407784</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.358999008355081</v>
       </c>
       <c r="E50" t="n">
-        <v>1.863139123830878</v>
+        <v>1.847185178341519</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.492125851529948</v>
+        <v>-1.495705889448856</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4773636793067049</v>
+        <v>0.480702809290613</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3754852505356773</v>
       </c>
       <c r="E51" t="n">
-        <v>1.686298099060017</v>
+        <v>1.668946887547658</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433557482411236</v>
+        <v>-1.43965318319078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4195866562532659</v>
+        <v>0.4215956824263562</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3914456977503872</v>
       </c>
       <c r="E52" t="n">
-        <v>1.567740734030139</v>
+        <v>1.550585168961962</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.393147731399156</v>
+        <v>-1.400814443924518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3386240695161967</v>
+        <v>0.3409572263654688</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4064477968990575</v>
       </c>
       <c r="E53" t="n">
-        <v>1.389025007510551</v>
+        <v>1.376096281665554</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.355910664888621</v>
+        <v>-1.362172811150528</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2723919079683054</v>
+        <v>0.2733920409105778</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4203735451668554</v>
       </c>
       <c r="E54" t="n">
-        <v>1.338762851981019</v>
+        <v>1.32096194565666</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.336855577254172</v>
+        <v>-1.342611086828534</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2184942326924108</v>
+        <v>0.2238526091860457</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4333300837555019</v>
       </c>
       <c r="E55" t="n">
-        <v>1.214908432477325</v>
+        <v>1.20165995610042</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301301946192454</v>
+        <v>-1.305411981568362</v>
       </c>
       <c r="G55" t="n">
-        <v>0.165349942231425</v>
+        <v>0.1638548529863345</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4457148142971726</v>
       </c>
       <c r="E56" t="n">
-        <v>1.185339538540242</v>
+        <v>1.170395946329791</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247629118322559</v>
+        <v>-1.254961479835103</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1058062609879865</v>
+        <v>0.1013764750801695</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4579301416390289</v>
       </c>
       <c r="E57" t="n">
-        <v>1.095007823203812</v>
+        <v>1.07851950011318</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240104030462016</v>
+        <v>-1.245111995413833</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06294362918317979</v>
+        <v>0.05818971259918106</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4701412593378028</v>
       </c>
       <c r="E58" t="n">
-        <v>1.041916094474099</v>
+        <v>1.023685934011013</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202354487071571</v>
+        <v>-1.206312677446025</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01438343780752672</v>
+        <v>-0.0201871289688888</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4824366276762045</v>
       </c>
       <c r="E59" t="n">
-        <v>0.932800860448128</v>
+        <v>0.9158511621607689</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.117746160251503</v>
+        <v>-1.123367345401502</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09047384406523357</v>
+        <v>-0.0970747214842318</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4950408482664629</v>
       </c>
       <c r="E60" t="n">
-        <v>0.911276831491952</v>
+        <v>0.8869976917882313</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.09952037993269</v>
+        <v>-1.104302037430416</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1167532496534992</v>
+        <v>-0.1237717008264974</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5087894136967928</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7780299226194424</v>
+        <v>0.7546282718183577</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.068971793726607</v>
+        <v>-1.075654433838696</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1450227007896735</v>
+        <v>-0.1540881393861256</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5245480028292425</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7384538590672711</v>
+        <v>0.7170291133812768</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.063708320358881</v>
+        <v>-1.070932638312698</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.221262031952653</v>
+        <v>-0.2271504059032878</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5427053456834067</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6479045965652954</v>
+        <v>0.6251964686073924</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098895479349781</v>
+        <v>-1.104832034887416</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2357968106976491</v>
+        <v>-0.2427773006202836</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5628930169762636</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5612434421294096</v>
+        <v>0.5306072530378724</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.084654170271057</v>
+        <v>-1.091990911927874</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2852617799695449</v>
+        <v>-0.2951068842465422</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5849390241794594</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4775943669050685</v>
+        <v>0.4442205876430774</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.052733138859521</v>
+        <v>-1.059055147093155</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3170922883994454</v>
+        <v>-0.3300253943887147</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6084823470976333</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4283162837888089</v>
+        <v>0.3965485574268175</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.068811188436607</v>
+        <v>-1.074019179976879</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3461005238696195</v>
+        <v>-0.3588934652421615</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6330939242146701</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4022135440195432</v>
+        <v>0.3658495862673712</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.086920164908148</v>
+        <v>-1.094004318245237</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3778711703277928</v>
+        <v>-0.394322992216152</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6579493434911711</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3231095985022008</v>
+        <v>0.2854009364583019</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.102786507512053</v>
+        <v>-1.107146211111506</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3893836495246079</v>
+        <v>-0.402846752970877</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6819879964216812</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2200696245825012</v>
+        <v>0.178798445196785</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144618345364678</v>
+        <v>-1.146704754086586</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4115252788232382</v>
+        <v>-0.4284209553312338</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7035013190221669</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1570291281613364</v>
+        <v>0.1161317210868928</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192688968709756</v>
+        <v>-1.195261573445937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4291071779339608</v>
+        <v>-0.4436828380255023</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.720147771576691</v>
       </c>
       <c r="E71" t="n">
-        <v>0.104198748039896</v>
+        <v>0.06803481687617842</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280894854025823</v>
+        <v>-1.278217125827096</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4906117037634898</v>
+        <v>-0.5027417833027592</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7303035453339921</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01920496852382789</v>
+        <v>-0.02016814834370699</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.316112674026632</v>
+        <v>-1.314099267709269</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4846444872159459</v>
+        <v>-0.4965628597820336</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7326166221188455</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005479056421195216</v>
+        <v>-0.03291874832161266</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306563959512089</v>
+        <v>-1.305319998538635</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5345927324059325</v>
+        <v>-0.546657109781111</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7262133008812538</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03485376396218733</v>
+        <v>-0.002354101586529953</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346906548311987</v>
+        <v>-1.346278727632896</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5212332923741179</v>
+        <v>-0.5296855107723883</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7104709891418267</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04106042839664021</v>
+        <v>0.003507991498468472</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.397627158942064</v>
+        <v>-1.394780065164792</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4711813837696768</v>
+        <v>-0.4813593790114014</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6855386800970982</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09108313603926314</v>
+        <v>0.05643619484199972</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.343593699193715</v>
+        <v>-1.341574452683989</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4815594055998558</v>
+        <v>-0.4918615049293076</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6523068079147689</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2043814078456873</v>
+        <v>0.1683445008658788</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.342102990092898</v>
+        <v>-1.34001804141908</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4276427496987794</v>
+        <v>-0.4366950478624133</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6123240445410169</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2869369070499378</v>
+        <v>0.2560919310814007</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.308261995441816</v>
+        <v>-1.305226555460816</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4301408919823242</v>
+        <v>-0.4360949680970498</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5668889291383031</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3779519248929134</v>
+        <v>0.3503657762632844</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.319389021942631</v>
+        <v>-1.326366591769083</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3982797225425145</v>
+        <v>-0.4039067478848767</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5173983357882301</v>
       </c>
       <c r="E80" t="n">
-        <v>0.478289349796341</v>
+        <v>0.4570938316606194</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337365134037899</v>
+        <v>-1.339438402326989</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3413174063238026</v>
+        <v>-0.3451222916487107</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4652561171020727</v>
       </c>
       <c r="E81" t="n">
-        <v>0.574829189615315</v>
+        <v>0.5579787745981377</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286129126431731</v>
+        <v>-1.286222569509549</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2901821420359072</v>
+        <v>-0.2924189357111793</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.411849475284272</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7081140597381884</v>
+        <v>0.6974454883379185</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.219226802810112</v>
+        <v>-1.222836041690839</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2572244764798252</v>
+        <v>-0.2599956477563699</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3577395643272494</v>
       </c>
       <c r="E83" t="n">
-        <v>0.862070290732147</v>
+        <v>0.8551686434064216</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164286653197309</v>
+        <v>-1.164507120459036</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2142026994331094</v>
+        <v>-0.2165066553205633</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.302871638859232</v>
       </c>
       <c r="E84" t="n">
-        <v>1.029864857531738</v>
+        <v>1.027550681307648</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.072786899388152</v>
+        <v>-1.07485724758106</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1663014416665768</v>
+        <v>-0.1630440743757595</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2477874082941529</v>
       </c>
       <c r="E85" t="n">
-        <v>1.12133979052335</v>
+        <v>1.125760816142622</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.000381654511898</v>
+        <v>-1.006480275387624</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1315128758044953</v>
+        <v>-0.1284277941884052</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1925730193331949</v>
       </c>
       <c r="E86" t="n">
-        <v>1.283996448091034</v>
+        <v>1.293257533131668</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9242781078213733</v>
+        <v>-0.929272932340372</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0472432801415179</v>
+        <v>-0.04347635606697346</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1375544061414183</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383333740052189</v>
+        <v>1.389506823380551</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8240063850820366</v>
+        <v>-0.8294538245092169</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01782769125398034</v>
+        <v>-0.01458784454025394</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0833189132885738</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470135059104802</v>
+        <v>1.476911142294709</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6974187555521615</v>
+        <v>-0.7005023771201607</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03292358038600603</v>
+        <v>0.03636491373627783</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03143034952140375</v>
       </c>
       <c r="E89" t="n">
-        <v>1.567242857631139</v>
+        <v>1.574456955248319</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.56428135028647</v>
+        <v>-0.570404791979741</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07912096203044817</v>
+        <v>0.08126577267599305</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01626897862583365</v>
       </c>
       <c r="E90" t="n">
-        <v>1.625913430116215</v>
+        <v>1.637463870563393</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4370732003179587</v>
+        <v>-0.4406882793910486</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09134302459944489</v>
+        <v>0.09481209886344395</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05671742798956394</v>
       </c>
       <c r="E91" t="n">
-        <v>1.667897112970294</v>
+        <v>1.68307431287529</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2756123221367293</v>
+        <v>-0.2826950154257274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1050747768944412</v>
+        <v>0.1104419136766216</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08641901791751852</v>
       </c>
       <c r="E92" t="n">
-        <v>1.69739008440665</v>
+        <v>1.713041799941191</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.118100874041408</v>
+        <v>-0.1211173333972253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1043009514062596</v>
+        <v>0.1046645033808958</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1034303006799759</v>
       </c>
       <c r="E93" t="n">
-        <v>1.692752971669924</v>
+        <v>1.707556399263647</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03848636361236817</v>
+        <v>0.03804980923318647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09950761352380633</v>
+        <v>0.0998215238633517</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1083735328012347</v>
       </c>
       <c r="E94" t="n">
-        <v>1.640588373477938</v>
+        <v>1.655691110930298</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1466423460426119</v>
+        <v>0.1499449748242473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06057543117972588</v>
+        <v>0.06088788147118034</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1038764587921638</v>
       </c>
       <c r="E95" t="n">
-        <v>1.548827271060508</v>
+        <v>1.567875058454503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2309878642063165</v>
+        <v>0.2353899092004062</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01181712518382988</v>
+        <v>0.01191056826164803</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09289789496631379</v>
       </c>
       <c r="E96" t="n">
-        <v>1.425863480892268</v>
+        <v>1.442414586050809</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3096085338055681</v>
+        <v>0.3149639902030212</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02718221937243238</v>
+        <v>-0.02845100116343204</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07894746594309671</v>
       </c>
       <c r="E97" t="n">
-        <v>1.271285269411583</v>
+        <v>1.289376725306032</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3604839095332817</v>
+        <v>0.3632974222044628</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04768859480924505</v>
+        <v>-0.04991078800360809</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.06568449836347508</v>
       </c>
       <c r="E98" t="n">
-        <v>1.140133529549527</v>
+        <v>1.155947310422159</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3801390769330946</v>
+        <v>0.3811684108371852</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08456064929705333</v>
+        <v>-0.08707777220577993</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.056812529621147</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9883586104033858</v>
+        <v>0.9999630726299282</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3757341118428231</v>
+        <v>0.3765970002645501</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1251645867052243</v>
+        <v>-0.127775152691769</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05177634775650261</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8817867801517781</v>
+        <v>0.8904025239362303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3459608111730129</v>
+        <v>0.3458075061234674</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1390481840016751</v>
+        <v>-0.1425230984580378</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0487396325305556</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7428252430514518</v>
+        <v>0.7474813364133596</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3479931981155578</v>
+        <v>0.346006072663831</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1322341395614042</v>
+        <v>-0.1350009306936762</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04257621606962311</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6283560126761188</v>
+        <v>0.6365337420332985</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3050604840023875</v>
+        <v>0.3031376006666607</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1949213043445691</v>
+        <v>-0.1941095176060239</v>
       </c>
     </row>
   </sheetData>
